--- a/Data/generated_database.xlsx
+++ b/Data/generated_database.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -706,17 +710,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Level Transmitter (Radar)</t>
+          <t>Wellpad Pond</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wellpad TH11</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bracket Mount</t>
+          <t>PSC21.XXXXXGBHB+DIS82.IXHKIMACX</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -725,7 +729,11 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
@@ -734,11 +742,13 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>100</v>
+          <t>2200 to 6000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2200 to 6000</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -758,17 +768,21 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500189544</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>PRO-PID-33</t>
+          <t>PRO-PID-0033</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>TH11-7.5.001-01</t>
+          <t>rev: 7.2 
+make: Vega 
+install: Bracket Mount 
+drwg: CCI-DET-2706
+CCI-DET-2711</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -829,12 +843,14 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AX2" s="2" t="n">
+        <v>45278.91661319674</v>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -857,17 +873,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flow Transmitter (Orifice Flow)</t>
+          <t>Well TH11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wellpad TH11</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Notes 3,  Note 4, Note 8</t>
+          <t>3051S1CD2A2A11A1BM5P1Q4Q8T1 c/w 0305RC52B11B4L4+1595P120A3SB065Q8+</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -876,16 +892,25 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1399</v>
-      </c>
-      <c r="N3" t="n">
-        <v>215</v>
+        <v>550</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0 to 1399T/H
+0 to 621.3mb</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-10 to 1399</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -900,22 +925,26 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>CCI-DAT-1472</t>
+          <t>CCI-DAT-1472
+PRO-CAL-0039</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500191995</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>PRO-PID-33</t>
+          <t>PRO-PID-0033</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>TH11-7.5.001-01</t>
+          <t>rev: 7.8 
+make: Rosemount 
+install: Notes 3,  Note 4, Note 8 
+drwg: CCI-DET-2702</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -974,12 +1003,14 @@
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AX3" s="2" t="n">
+        <v>45278.91661320828</v>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1002,35 +1033,43 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pressure Indicating Transmitter</t>
+          <t>Well TH11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wellpad TH11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2051TG3A2B21BS5B4M4Q4Q8 c/w 0306RT22BA11++</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L4" t="n">
+        <v>5.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>215</v>
+          <t>0 to 25</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1 to 55</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1045,22 +1084,25 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>PRO-CAL-0039</t>
+          <t>CCI-DAT-1461</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500191995</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>PRO-PID-33</t>
+          <t>PRO-PID-0033</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>TH11-7.5.001-01</t>
+          <t>rev: 3.8 
+make: Rosemount 
+install:  
+drwg: CCI-DET-2700</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1121,12 +1163,14 @@
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AX4" s="2" t="n">
+        <v>45278.91661321985</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1149,35 +1193,43 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pressure Gauge</t>
+          <t>Well TH11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wellpad TH11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>72039878+14503369+0731277</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>215</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0 to 25</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1192,21 +1244,26 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CCI-DAT-1461</t>
+          <t>CCI-DAT-1460</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500189704</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>PRO-PID-33</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
+          <t>PRO-PID-0033</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>rev: 3.2 
+make: Wika 
+install:  
+drwg: CCI-DET-2701</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1264,12 +1321,14 @@
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+      <c r="AX5" s="2" t="n">
+        <v>45278.91661323143</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1292,35 +1351,43 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pressure Gauge</t>
+          <t>Well TH11 FCV Inlet</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wellpad TH11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>72039876+14503369+0731277</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>215</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0 to 60</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1340,16 +1407,21 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500189704</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PRO-PID-33</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
+          <t>PRO-PID-0033</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>rev: 7.3 
+make: Wika 
+install:  
+drwg: CCI-DET-2701</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1407,12 +1479,14 @@
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AX6" s="2" t="n">
+        <v>45278.91661324258</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1435,18 +1509,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Level Transmitter (Radar)</t>
+          <t>Silencer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wellpad TH12</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bracket Mount,  
-Vee-notch weirbox level</t>
+          <t>PSC21.XXXXXGBHB+DIS82.IXHKIMACX</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1455,20 +1528,24 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L7" t="n">
+        <v>950</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>100</v>
+          <t>0 to 1300</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0 to 1300</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1483,22 +1560,26 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>CCI-DAT-1460</t>
+          <t>CCI-DAT-1468</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500189544</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>PRO-PID-37</t>
+          <t>PRO-PID-0037</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>TH12-8.5.002-01</t>
+          <t>rev: 3.2 
+make: Vega 
+install: Bracket Mount,  
+Vee-notch weirbox level 
+drwg: (LFC-)MEC-AGT-2099</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1557,12 +1638,14 @@
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AX7" s="2" t="n">
+        <v>45278.91661325459</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1585,18 +1668,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Level Transmitter (Radar)</t>
+          <t>Silencer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wellpad TH12</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bracket Mount,  
-Vee-notch weirbox level</t>
+          <t>PSC21.XXXXXGBHB+DIS82.IXHKIMACX</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1605,20 +1687,24 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="L8" t="n">
+        <v>950</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>100</v>
+          <t>0 to 1300</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0 to 1300</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1633,22 +1719,26 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>CCI-DAT-1460</t>
+          <t>CCI-DAT-1468</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>PO# 4500189544</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>PRO-PID-37</t>
+          <t>PRO-PID-0037</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>TH12-8.5.002-01</t>
+          <t>rev: 3.2 
+make: Vega 
+install: Bracket Mount,  
+Vee-notch weirbox level 
+drwg: (LFC-)MEC-AGT-2099</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1707,12 +1797,14 @@
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AX8" s="2" t="n">
+        <v>45278.91661325459</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>MduP</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/generated_database.xlsx
+++ b/Data/generated_database.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -844,7 +844,7 @@
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" s="2" t="n">
-        <v>45278.91661319674</v>
+        <v>45278</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" s="2" t="n">
-        <v>45278.91661320828</v>
+        <v>45278</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" s="2" t="n">
-        <v>45278.91661321985</v>
+        <v>45278</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" s="2" t="n">
-        <v>45278.91661323143</v>
+        <v>45278</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" s="2" t="n">
-        <v>45278.91661324258</v>
+        <v>45278</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" s="2" t="n">
-        <v>45278.91661325459</v>
+        <v>45278</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" s="2" t="n">
-        <v>45278.91661325459</v>
+        <v>45278</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>

--- a/Data/generated_database.xlsx
+++ b/Data/generated_database.xlsx
@@ -700,7 +700,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0LFC</t>
+          <t>Wellpad TH11 Common Steam/Water Dump System</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wellpad Pond</t>
+          <t>Wellpad Pond Level</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0NAB</t>
+          <t>Wellpad TH11 Condensate System</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Well TH11</t>
+          <t>Well TH11 Flow</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0NAB</t>
+          <t>Wellpad TH11 Condensate System</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Well TH11</t>
+          <t>Well TH11 Pressure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0NAB</t>
+          <t>Wellpad TH11 Condensate System</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Well TH11</t>
+          <t>Well TH11 Pressure</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0NAB</t>
+          <t>Wellpad TH11 Condensate System</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Well TH11 FCV Inlet</t>
+          <t>Well TH11 FCV Inlet Pressure</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0LFC</t>
+          <t>Wellpad TH12 Common Steam/Water Dump System</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Silencer</t>
+          <t>Silencer Level</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0LFC</t>
+          <t>Wellpad TH12 Common Steam/Water Dump System</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Silencer</t>
+          <t>Silencer Level</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>MduP</t>
+          <t>RF &amp; MduP</t>
         </is>
       </c>
     </row>
